--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H2">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N2">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O2">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P2">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q2">
-        <v>2.927751587632667</v>
+        <v>40.93123610920489</v>
       </c>
       <c r="R2">
-        <v>26.349764288694</v>
+        <v>368.381124982844</v>
       </c>
       <c r="S2">
-        <v>9.236509938833382E-06</v>
+        <v>0.0001319448320629571</v>
       </c>
       <c r="T2">
-        <v>9.236509938833382E-06</v>
+        <v>0.0001319448320629571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H3">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q3">
-        <v>5.335841854933333</v>
+        <v>32.90321203697777</v>
       </c>
       <c r="R3">
-        <v>48.0225766944</v>
+        <v>296.1289083328</v>
       </c>
       <c r="S3">
-        <v>1.683358538112367E-05</v>
+        <v>0.0001060659095407718</v>
       </c>
       <c r="T3">
-        <v>1.683358538112368E-05</v>
+        <v>0.0001060659095407719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H4">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N4">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q4">
-        <v>231.6742265654227</v>
+        <v>1979.580990194615</v>
       </c>
       <c r="R4">
-        <v>2085.068039088804</v>
+        <v>17816.22891175154</v>
       </c>
       <c r="S4">
-        <v>0.0007308889542685968</v>
+        <v>0.006381324048200718</v>
       </c>
       <c r="T4">
-        <v>0.0007308889542685968</v>
+        <v>0.006381324048200719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H5">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N5">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q5">
-        <v>447.0199438254294</v>
+        <v>2849.717081771148</v>
       </c>
       <c r="R5">
-        <v>4023.179494428864</v>
+        <v>25647.45373594033</v>
       </c>
       <c r="S5">
-        <v>0.001410264508587932</v>
+        <v>0.009186271354670266</v>
       </c>
       <c r="T5">
-        <v>0.001410264508587932</v>
+        <v>0.009186271354670268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H6">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N6">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q6">
-        <v>276.5209209403923</v>
+        <v>800.9290368614394</v>
       </c>
       <c r="R6">
-        <v>2488.688288463531</v>
+        <v>7208.361331752954</v>
       </c>
       <c r="S6">
-        <v>0.0008723719066023935</v>
+        <v>0.002581853305897666</v>
       </c>
       <c r="T6">
-        <v>0.0008723719066023936</v>
+        <v>0.002581853305897667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>2875.806458</v>
       </c>
       <c r="I7">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J7">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N7">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O7">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P7">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q7">
-        <v>943.1181716286929</v>
+        <v>2138.215144175448</v>
       </c>
       <c r="R7">
-        <v>8488.063544658236</v>
+        <v>19243.93629757903</v>
       </c>
       <c r="S7">
-        <v>0.002975361845089618</v>
+        <v>0.00689269284123219</v>
       </c>
       <c r="T7">
-        <v>0.002975361845089618</v>
+        <v>0.00689269284123219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q8">
         <v>1718.837566541511</v>
@@ -951,10 +951,10 @@
         <v>15469.5380988736</v>
       </c>
       <c r="S8">
-        <v>0.005422611786349669</v>
+        <v>0.005540798559216223</v>
       </c>
       <c r="T8">
-        <v>0.005422611786349669</v>
+        <v>0.005540798559216224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N9">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q9">
-        <v>74629.34146969263</v>
+        <v>103411.7328160549</v>
       </c>
       <c r="R9">
-        <v>671664.0732272336</v>
+        <v>930705.595344494</v>
       </c>
       <c r="S9">
-        <v>0.2354416464583921</v>
+        <v>0.3333552811195275</v>
       </c>
       <c r="T9">
-        <v>0.2354416464583921</v>
+        <v>0.3333552811195275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N10">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q10">
-        <v>143998.7715771655</v>
+        <v>148866.9485720278</v>
       </c>
       <c r="R10">
-        <v>1295988.944194489</v>
+        <v>1339802.53714825</v>
       </c>
       <c r="S10">
-        <v>0.4542892540714977</v>
+        <v>0.4798834923200327</v>
       </c>
       <c r="T10">
-        <v>0.4542892540714976</v>
+        <v>0.4798834923200327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N11">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q11">
-        <v>89075.83091270982</v>
+        <v>41839.89438916196</v>
       </c>
       <c r="R11">
-        <v>801682.4782143884</v>
+        <v>376559.0495024577</v>
       </c>
       <c r="S11">
-        <v>0.2810176249277858</v>
+        <v>0.1348739584600118</v>
       </c>
       <c r="T11">
-        <v>0.2810176249277858</v>
+        <v>0.1348739584600118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H12">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I12">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J12">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N12">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O12">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P12">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q12">
-        <v>0.5118747787902223</v>
+        <v>0.2318342556068889</v>
       </c>
       <c r="R12">
-        <v>4.606873009112</v>
+        <v>2.086508300462</v>
       </c>
       <c r="S12">
-        <v>1.614869410951959E-06</v>
+        <v>7.473346722507725E-07</v>
       </c>
       <c r="T12">
-        <v>1.614869410951959E-06</v>
+        <v>7.473346722507726E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H13">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I13">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J13">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q13">
-        <v>0.9328943345777777</v>
+        <v>0.1863635793777778</v>
       </c>
       <c r="R13">
-        <v>8.396049011200001</v>
+        <v>1.6772722144</v>
       </c>
       <c r="S13">
-        <v>2.943107546967916E-06</v>
+        <v>6.007566230847975E-07</v>
       </c>
       <c r="T13">
-        <v>2.943107546967916E-06</v>
+        <v>6.007566230847978E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H14">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N14">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q14">
-        <v>40.50486864237689</v>
+        <v>11.21233387750311</v>
       </c>
       <c r="R14">
-        <v>364.5438177813921</v>
+        <v>100.911004897528</v>
       </c>
       <c r="S14">
-        <v>0.0001277853023346715</v>
+        <v>3.614377798300239E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001277853023346715</v>
+        <v>3.61437779830024E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H15">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N15">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q15">
-        <v>78.15493494291911</v>
+        <v>16.14077905148034</v>
       </c>
       <c r="R15">
-        <v>703.394414486272</v>
+        <v>145.267011463323</v>
       </c>
       <c r="S15">
-        <v>0.0002465642359886307</v>
+        <v>5.203098131780899E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002465642359886307</v>
+        <v>5.2030981317809E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H16">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N16">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q16">
-        <v>48.34566082557644</v>
+        <v>4.536456865346334</v>
       </c>
       <c r="R16">
-        <v>435.110947430188</v>
+        <v>40.82811178811701</v>
       </c>
       <c r="S16">
-        <v>0.0001525215385762881</v>
+        <v>1.462360036383954E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001525215385762881</v>
+        <v>1.462360036383954E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H17">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I17">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J17">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N17">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O17">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P17">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q17">
-        <v>14.485394831996</v>
+        <v>44.88899742879623</v>
       </c>
       <c r="R17">
-        <v>130.368553487964</v>
+        <v>404.000976859166</v>
       </c>
       <c r="S17">
-        <v>4.569871771185372E-05</v>
+        <v>0.0001447029650268748</v>
       </c>
       <c r="T17">
-        <v>4.569871771185372E-05</v>
+        <v>0.0001447029650268748</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H18">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I18">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J18">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>5.3792</v>
       </c>
       <c r="O18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q18">
-        <v>26.3997042496</v>
+        <v>36.08472015324444</v>
       </c>
       <c r="R18">
-        <v>237.5973382464</v>
+        <v>324.7624813792</v>
       </c>
       <c r="S18">
-        <v>8.328614070733316E-05</v>
+        <v>0.0001163217335522372</v>
       </c>
       <c r="T18">
-        <v>8.328614070733316E-05</v>
+        <v>0.0001163217335522372</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H19">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I19">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J19">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N19">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q19">
-        <v>1146.235445101736</v>
+        <v>2170.992484611434</v>
       </c>
       <c r="R19">
-        <v>10316.11900591563</v>
+        <v>19538.9323615029</v>
       </c>
       <c r="S19">
-        <v>0.003616158941095801</v>
+        <v>0.006998352994464746</v>
       </c>
       <c r="T19">
-        <v>0.003616158941095801</v>
+        <v>0.006998352994464746</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H20">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N20">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q20">
-        <v>2211.683672699776</v>
+        <v>3125.264588030705</v>
       </c>
       <c r="R20">
-        <v>19905.15305429799</v>
+        <v>28127.38129227634</v>
       </c>
       <c r="S20">
-        <v>0.006977449285909176</v>
+        <v>0.01007451888625673</v>
       </c>
       <c r="T20">
-        <v>0.006977449285909175</v>
+        <v>0.01007451888625673</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H21">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N21">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q21">
-        <v>1368.119732578654</v>
+        <v>878.3732155168425</v>
       </c>
       <c r="R21">
-        <v>12313.07759320789</v>
+        <v>7905.358939651582</v>
       </c>
       <c r="S21">
-        <v>0.004316162464348488</v>
+        <v>0.002831500277703701</v>
       </c>
       <c r="T21">
-        <v>0.004316162464348488</v>
+        <v>0.002831500277703701</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1789,40 +1789,40 @@
         <v>2.293185</v>
       </c>
       <c r="I22">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J22">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N22">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O22">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P22">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q22">
-        <v>0.7520479823633333</v>
+        <v>1.705025344023333</v>
       </c>
       <c r="R22">
-        <v>6.768431841269999</v>
+        <v>15.34522809621</v>
       </c>
       <c r="S22">
-        <v>2.372571051765764E-06</v>
+        <v>5.496273850123274E-06</v>
       </c>
       <c r="T22">
-        <v>2.372571051765764E-06</v>
+        <v>5.496273850123275E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1851,10 +1851,10 @@
         <v>2.293185</v>
       </c>
       <c r="I23">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J23">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,10 +1869,10 @@
         <v>5.3792</v>
       </c>
       <c r="O23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q23">
         <v>1.370611194666667</v>
@@ -1881,10 +1881,10 @@
         <v>12.335500752</v>
       </c>
       <c r="S23">
-        <v>4.324022562327894E-06</v>
+        <v>4.418265390798511E-06</v>
       </c>
       <c r="T23">
-        <v>4.324022562327894E-06</v>
+        <v>4.418265390798512E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1913,10 +1913,10 @@
         <v>2.293185</v>
       </c>
       <c r="I24">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J24">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N24">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q24">
-        <v>59.50987624431333</v>
+        <v>82.46112455102666</v>
       </c>
       <c r="R24">
-        <v>535.58888619882</v>
+        <v>742.15012095924</v>
       </c>
       <c r="S24">
-        <v>0.0001877425549733179</v>
+        <v>0.0002658194636873173</v>
       </c>
       <c r="T24">
-        <v>0.0001877425549733179</v>
+        <v>0.0002658194636873173</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1975,10 +1975,10 @@
         <v>2.293185</v>
       </c>
       <c r="I25">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J25">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N25">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q25">
-        <v>114.8254682023467</v>
+        <v>118.707381197885</v>
       </c>
       <c r="R25">
-        <v>1033.42921382112</v>
+        <v>1068.366430780965</v>
       </c>
       <c r="S25">
-        <v>0.0003622529256793077</v>
+        <v>0.0003826619219365819</v>
       </c>
       <c r="T25">
-        <v>0.0003622529256793078</v>
+        <v>0.000382661921936582</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>2.293185</v>
       </c>
       <c r="I26">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J26">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N26">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q26">
-        <v>71.02959197526165</v>
+        <v>33.363378104915</v>
       </c>
       <c r="R26">
-        <v>639.2663277773549</v>
+        <v>300.270402944235</v>
       </c>
       <c r="S26">
-        <v>0.0002240851085188099</v>
+        <v>0.0001075492885033093</v>
       </c>
       <c r="T26">
-        <v>0.00022408510851881</v>
+        <v>0.0001075492885033093</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H27">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I27">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J27">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N27">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O27">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P27">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q27">
-        <v>1.409113703421111</v>
+        <v>0.06862600890377779</v>
       </c>
       <c r="R27">
-        <v>12.68202333079</v>
+        <v>0.6176340801340001</v>
       </c>
       <c r="S27">
-        <v>4.445490792857658E-06</v>
+        <v>2.212209569191008E-07</v>
       </c>
       <c r="T27">
-        <v>4.445490792857658E-06</v>
+        <v>2.212209569191008E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H28">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I28">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J28">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>5.3792</v>
       </c>
       <c r="O28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q28">
-        <v>2.568116744888889</v>
+        <v>0.05516608675555556</v>
       </c>
       <c r="R28">
-        <v>23.113050704</v>
+        <v>0.4964947808</v>
       </c>
       <c r="S28">
-        <v>8.10192911804742E-06</v>
+        <v>1.778319138252308E-07</v>
       </c>
       <c r="T28">
-        <v>8.10192911804742E-06</v>
+        <v>1.778319138252308E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H29">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I29">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J29">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N29">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q29">
-        <v>111.5037658119045</v>
+        <v>3.318999267366222</v>
       </c>
       <c r="R29">
-        <v>1003.53389230714</v>
+        <v>29.870993406296</v>
       </c>
       <c r="S29">
-        <v>0.0003517735744690591</v>
+        <v>1.069903678895323E-05</v>
       </c>
       <c r="T29">
-        <v>0.000351773574469059</v>
+        <v>1.069903678895323E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H30">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I30">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J30">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N30">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q30">
-        <v>215.1486933549156</v>
+        <v>4.777884286345668</v>
       </c>
       <c r="R30">
-        <v>1936.33824019424</v>
+        <v>43.00095857711101</v>
       </c>
       <c r="S30">
-        <v>0.0006787539806635476</v>
+        <v>1.540185930608502E-05</v>
       </c>
       <c r="T30">
-        <v>0.0006787539806635476</v>
+        <v>1.540185930608502E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H31">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I31">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J31">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N31">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q31">
-        <v>133.0882786045372</v>
+        <v>1.342851290107667</v>
       </c>
       <c r="R31">
-        <v>1197.794507440835</v>
+        <v>12.085661610969</v>
       </c>
       <c r="S31">
-        <v>0.0004198686846471847</v>
+        <v>4.328779308937984E-06</v>
       </c>
       <c r="T31">
-        <v>0.0004198686846471847</v>
+        <v>4.328779308937984E-06</v>
       </c>
     </row>
   </sheetData>
